--- a/data/trans_dic/P34B04_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P34B04_R-Clase-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.03538498290751057</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.07789030939999886</v>
+        <v>0.07789030939999884</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08221351756188368</v>
+        <v>0.08351098869997442</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03449119638087449</v>
+        <v>0.0343356354542699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08736346086608598</v>
+        <v>0.08647880987268261</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01083994756415233</v>
+        <v>0.01083923644855424</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.005433817202465146</v>
+        <v>0.005325236309133106</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02140126954197469</v>
+        <v>0.02061450871543854</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05578481145731184</v>
+        <v>0.0580936535135802</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02277767802199098</v>
+        <v>0.02448064090253901</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06106611980228039</v>
+        <v>0.06026541173474</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1443232537370899</v>
+        <v>0.1441874856489971</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07789203930596719</v>
+        <v>0.08027702131497168</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1587160645845203</v>
+        <v>0.1549853821347427</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0573926719539385</v>
+        <v>0.05272865255134782</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03011069245368159</v>
+        <v>0.02888716774534409</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05236686361473888</v>
+        <v>0.04921339394731944</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09507335666701308</v>
+        <v>0.09668570472111337</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05036830991528926</v>
+        <v>0.0501221935121766</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1009918894973289</v>
+        <v>0.1005431045226513</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.05504633413115596</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09140219924627116</v>
+        <v>0.09140219924627115</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0.02122635328615934</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.01574602066451611</v>
+        <v>0.01574602066451612</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.03527608958796317</v>
@@ -784,29 +784,29 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03998629822459344</v>
+        <v>0.03970201192048293</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03376871026633858</v>
+        <v>0.0330285469326837</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06489388256130697</v>
+        <v>0.06564880845614195</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>0.01035969292128699</v>
+        <v>0.00990831450572521</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.007831925040103771</v>
+        <v>0.007464873601658791</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0219610599697567</v>
+        <v>0.02183919758168522</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02618922568665596</v>
+        <v>0.02602513117989408</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04065207568649954</v>
+        <v>0.04072774261873893</v>
       </c>
     </row>
     <row r="9">
@@ -817,29 +817,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09594391093931474</v>
+        <v>0.09302080695949153</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08274560150048803</v>
+        <v>0.08238154367596058</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1255503233459528</v>
+        <v>0.1299291429739764</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.03996045481372203</v>
+        <v>0.04042522339079624</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03144219692311871</v>
+        <v>0.03312526675329306</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05370030531370223</v>
+        <v>0.0526626268153936</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05630135914277814</v>
+        <v>0.05353938241514095</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07575265850332048</v>
+        <v>0.07670462292352882</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.02553969269428003</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.05500466207384119</v>
+        <v>0.0550046620738412</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03680525688552164</v>
+        <v>0.03645496041342477</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01825182717074197</v>
+        <v>0.01820992060681122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04273732988822438</v>
+        <v>0.04178091637078517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003377608212839452</v>
+        <v>0.003428557997324231</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01470459801847844</v>
+        <v>0.01528840730592028</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02806203040999912</v>
+        <v>0.02825098262841806</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01529497721967906</v>
+        <v>0.01560421324231638</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03818756400040357</v>
+        <v>0.03778085798202373</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0709571858153253</v>
+        <v>0.07114826349723725</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04819989157771938</v>
+        <v>0.04805379131243646</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09805794622675801</v>
+        <v>0.09501202270135141</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03313248909161792</v>
+        <v>0.03071201755314966</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04232557238877813</v>
+        <v>0.03992050035360709</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06543084161792274</v>
+        <v>0.07118623426893236</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05620766231062135</v>
+        <v>0.05524409793832394</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03974228747768755</v>
+        <v>0.03932203696658486</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0785556594742154</v>
+        <v>0.07802868886936783</v>
       </c>
     </row>
     <row r="13">
@@ -987,7 +987,7 @@
         <v>0.03894642043747024</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.03914468787262382</v>
+        <v>0.0391446878726238</v>
       </c>
     </row>
     <row r="14">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03986610975573414</v>
+        <v>0.0397691476779744</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04334692225761496</v>
+        <v>0.04335388185441208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04040787990800063</v>
+        <v>0.04110388745342895</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002639756971573288</v>
+        <v>0.003705999623516603</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007936812254527045</v>
+        <v>0.007947459597213028</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01007868319971687</v>
+        <v>0.01090025844061078</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02707328689642698</v>
+        <v>0.0274784326469147</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03044826647266323</v>
+        <v>0.03069319894526272</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02998803338205778</v>
+        <v>0.02934613603056688</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06663092158335925</v>
+        <v>0.06738276239449799</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0715470441707496</v>
+        <v>0.07153178592552781</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07392001161109465</v>
+        <v>0.07455445432688973</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01725662988838467</v>
+        <v>0.01884497914047567</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0240570722256846</v>
+        <v>0.0239012205855621</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02972475297391275</v>
+        <v>0.02979859649229498</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04482169287968674</v>
+        <v>0.04462211816597329</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04807277286117082</v>
+        <v>0.04835744223777422</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05166792989077305</v>
+        <v>0.05027763797583153</v>
       </c>
     </row>
     <row r="16">
@@ -1078,7 +1078,7 @@
         <v>0.04715728047297467</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.064916728782949</v>
+        <v>0.06491672878294899</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.001388940125992372</v>
@@ -1096,7 +1096,7 @@
         <v>0.02449873895693824</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.02968047367884454</v>
+        <v>0.02968047367884453</v>
       </c>
     </row>
     <row r="17">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0378642100328563</v>
+        <v>0.03827268360260968</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03194209195883437</v>
+        <v>0.03206455606719326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04363256864627506</v>
+        <v>0.04267195130478011</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.001403241400258596</v>
+        <v>0.001396778444787426</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.002317559779349941</v>
+        <v>0.002324804800025385</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01622870798099576</v>
+        <v>0.0164125743432432</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01738793524784132</v>
+        <v>0.01622230549614411</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01960705709468469</v>
+        <v>0.02051650015657055</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08004345076714324</v>
+        <v>0.0815820021259949</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06666693144560135</v>
+        <v>0.06892445560526854</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09899016347239527</v>
+        <v>0.09929391653969794</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.006452060154343941</v>
+        <v>0.006997916812890785</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0133942164732134</v>
+        <v>0.01247275598323305</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01183656807445234</v>
+        <v>0.01193538592300205</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03352591081125477</v>
+        <v>0.03339616728658622</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03424185833118539</v>
+        <v>0.03362260967051632</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.044771697325563</v>
+        <v>0.04509602278647369</v>
       </c>
     </row>
     <row r="19">
@@ -1196,7 +1196,7 @@
         <v>0.01331857090888208</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.01694980627997203</v>
+        <v>0.01694980627997202</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.04795271580481696</v>
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1710998218638864</v>
+        <v>0.1662823501377631</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1623017524092183</v>
+        <v>0.1627578981222858</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2118734161827775</v>
+        <v>0.2032816267353393</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.003533891699555009</v>
+        <v>0.003502862633096026</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.008064288128130896</v>
+        <v>0.007835439393650572</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.008635293725180789</v>
+        <v>0.009192781107696718</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03741637650215016</v>
+        <v>0.0378518604546056</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0423297143232718</v>
+        <v>0.04326029623529782</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05611799349321051</v>
+        <v>0.05659201682086869</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2689973219297574</v>
+        <v>0.2689058174464533</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2521895609622573</v>
+        <v>0.2559516073216517</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3929078541016824</v>
+        <v>0.3897572598498401</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.01422485361435861</v>
+        <v>0.01420433618797441</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02210381530823264</v>
+        <v>0.02098379511623148</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03331612299179652</v>
+        <v>0.03076364149585598</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06030810468826142</v>
+        <v>0.0593805766942169</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0674314420546685</v>
+        <v>0.06756516577469759</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1049096362224029</v>
+        <v>0.1046185703665715</v>
       </c>
     </row>
     <row r="22">
@@ -1296,7 +1296,7 @@
         <v>0.06288708947710293</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.08931773048833039</v>
+        <v>0.08931773048833037</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.007823269814919848</v>
@@ -1305,7 +1305,7 @@
         <v>0.01269785850506669</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.01759093283607613</v>
+        <v>0.01759093283607614</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.04043252914600374</v>
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06563738569494891</v>
+        <v>0.06524215390292046</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05564899552972086</v>
+        <v>0.05469756476516793</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07783304071980074</v>
+        <v>0.0770954640375348</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0051273776051934</v>
+        <v>0.005152949349234271</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.009571945945234703</v>
+        <v>0.009464392474402766</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01342169957202539</v>
+        <v>0.01378018841805062</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03565388129135442</v>
+        <v>0.03599654561376155</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03279418583693225</v>
+        <v>0.03308538375406422</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04651510637895537</v>
+        <v>0.04674841841031594</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08327914737264323</v>
+        <v>0.08385744826313794</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07198329993888683</v>
+        <v>0.07180198485133708</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1020889170362346</v>
+        <v>0.1025277658295062</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01174621848593717</v>
+        <v>0.01162759422876824</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0167938156741498</v>
+        <v>0.01677538174947389</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02254289139956095</v>
+        <v>0.02264764060849012</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04551035113787218</v>
+        <v>0.045924788812849</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.04276920697105301</v>
+        <v>0.04231483017504448</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05925555767069644</v>
+        <v>0.05987867357681406</v>
       </c>
     </row>
     <row r="25">
@@ -1615,31 +1615,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35945</v>
+        <v>36512</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14800</v>
+        <v>14733</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>48104</v>
+        <v>47617</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1886</v>
+        <v>1848</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10453</v>
+        <v>10068</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>41931</v>
+        <v>43667</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>17679</v>
+        <v>19001</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>63449</v>
+        <v>62618</v>
       </c>
     </row>
     <row r="7">
@@ -1650,31 +1650,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>63100</v>
+        <v>63040</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33423</v>
+        <v>34446</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>87392</v>
+        <v>85338</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18047</v>
+        <v>16581</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10450</v>
+        <v>10025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25577</v>
+        <v>24036</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>71463</v>
+        <v>72675</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>39093</v>
+        <v>38902</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>104934</v>
+        <v>104467</v>
       </c>
     </row>
     <row r="8">
@@ -1759,29 +1759,29 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16746</v>
+        <v>16627</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12738</v>
+        <v>12459</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31358</v>
+        <v>31722</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="n">
-        <v>3857</v>
+        <v>3689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3298</v>
+        <v>3143</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16620</v>
+        <v>16528</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>19629</v>
+        <v>19506</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>36761</v>
+        <v>36830</v>
       </c>
     </row>
     <row r="11">
@@ -1792,29 +1792,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>40181</v>
+        <v>38957</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31214</v>
+        <v>31077</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>60667</v>
+        <v>62783</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>14876</v>
+        <v>15049</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13240</v>
+        <v>13948</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>40641</v>
+        <v>39855</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>42198</v>
+        <v>40128</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>68502</v>
+        <v>69363</v>
       </c>
     </row>
     <row r="12">
@@ -1899,31 +1899,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23133</v>
+        <v>22913</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9526</v>
+        <v>9504</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20155</v>
+        <v>19704</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>879</v>
+        <v>892</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2757</v>
+        <v>2867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>24937</v>
+        <v>25105</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10523</v>
+        <v>10736</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>25170</v>
+        <v>24902</v>
       </c>
     </row>
     <row r="15">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>44598</v>
+        <v>44718</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25156</v>
+        <v>25080</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>46245</v>
+        <v>44809</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8619</v>
+        <v>7989</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7031</v>
+        <v>6632</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12268</v>
+        <v>13347</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>49949</v>
+        <v>49093</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>27344</v>
+        <v>27055</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>51777</v>
+        <v>51429</v>
       </c>
     </row>
     <row r="16">
@@ -2043,31 +2043,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>46205</v>
+        <v>46093</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>49833</v>
+        <v>49841</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>45690</v>
+        <v>46477</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2019</v>
+        <v>2834</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6555</v>
+        <v>6564</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8674</v>
+        <v>9381</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>52083</v>
+        <v>52862</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>60151</v>
+        <v>60635</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>59716</v>
+        <v>58437</v>
       </c>
     </row>
     <row r="19">
@@ -2078,31 +2078,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>77226</v>
+        <v>78097</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>82253</v>
+        <v>82236</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>83583</v>
+        <v>84301</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13197</v>
+        <v>14412</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19868</v>
+        <v>19739</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25581</v>
+        <v>25644</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>86227</v>
+        <v>85843</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>94968</v>
+        <v>95531</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>102887</v>
+        <v>100119</v>
       </c>
     </row>
     <row r="20">
@@ -2187,31 +2187,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>19333</v>
+        <v>19542</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19827</v>
+        <v>19903</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>24735</v>
+        <v>24190</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1924</v>
+        <v>1930</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>20645</v>
+        <v>20879</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>23629</v>
+        <v>22045</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>27391</v>
+        <v>28662</v>
       </c>
     </row>
     <row r="23">
@@ -2222,31 +2222,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>40870</v>
+        <v>41655</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>41381</v>
+        <v>42782</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>56116</v>
+        <v>56288</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4913</v>
+        <v>5329</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9888</v>
+        <v>9208</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>9826</v>
+        <v>9908</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>42649</v>
+        <v>42484</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>46533</v>
+        <v>45691</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>62546</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="24">
@@ -2331,31 +2331,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>45463</v>
+        <v>44183</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>46604</v>
+        <v>46735</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>50262</v>
+        <v>48224</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3920</v>
+        <v>3886</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>8726</v>
+        <v>8478</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>7273</v>
+        <v>7743</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>51450</v>
+        <v>52049</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>57957</v>
+        <v>59231</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>60578</v>
+        <v>61090</v>
       </c>
     </row>
     <row r="27">
@@ -2366,31 +2366,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>71476</v>
+        <v>71451</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>72415</v>
+        <v>73495</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>93209</v>
+        <v>92461</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15780</v>
+        <v>15758</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>23917</v>
+        <v>22705</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>28061</v>
+        <v>25911</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>82927</v>
+        <v>81652</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>92325</v>
+        <v>92508</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>113248</v>
+        <v>112934</v>
       </c>
     </row>
     <row r="28">
@@ -2475,31 +2475,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>224469</v>
+        <v>223118</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>188412</v>
+        <v>185191</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>267767</v>
+        <v>265230</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>18193</v>
+        <v>18284</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>33804</v>
+        <v>33424</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>48720</v>
+        <v>50022</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>248439</v>
+        <v>250827</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>226848</v>
+        <v>228862</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>328873</v>
+        <v>330522</v>
       </c>
     </row>
     <row r="31">
@@ -2510,31 +2510,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>284802</v>
+        <v>286779</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>243715</v>
+        <v>243102</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>351214</v>
+        <v>352724</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>41678</v>
+        <v>41257</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>59309</v>
+        <v>59244</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>81830</v>
+        <v>82210</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>317119</v>
+        <v>320007</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>295848</v>
+        <v>292705</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>418951</v>
+        <v>423356</v>
       </c>
     </row>
     <row r="32">
